--- a/clear_data/men/men_2015_2022_3.xlsx
+++ b/clear_data/men/men_2015_2022_3.xlsx
@@ -462,7 +462,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0 - 4 года</t>
+          <t>0 - 4</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,7 +481,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>5 - 9 лет</t>
+          <t>5 - 9</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -500,7 +500,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10 - 14 лет</t>
+          <t>10 - 14</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>15 - 19 лет</t>
+          <t>15 - 19</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -538,7 +538,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>20 - 24 лет</t>
+          <t>20 - 24</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -557,7 +557,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>25 - 29 лет</t>
+          <t>25 - 29</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -576,7 +576,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>30 - 34 лет</t>
+          <t>30 - 34</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -595,7 +595,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>35 - 39 лет</t>
+          <t>35 - 39</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -614,7 +614,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>40 - 44 лет</t>
+          <t>40 - 44</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -633,7 +633,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>45 - 49 лет</t>
+          <t>45 - 49</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -652,7 +652,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>50 - 54 лет</t>
+          <t>50 - 54</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -671,7 +671,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>55 - 59 лет</t>
+          <t>55 - 59</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -690,7 +690,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>60 - 64 лет</t>
+          <t>60 - 64</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -709,7 +709,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>65 - 69 лет</t>
+          <t>65 - 69</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -728,7 +728,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>70 - 74 лет</t>
+          <t>70 - 74</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -747,7 +747,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>75 - 79 лет</t>
+          <t>75 - 79</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -766,7 +766,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>80 - 84 лет</t>
+          <t>80 - 84</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -785,7 +785,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>85 - 89 лет</t>
+          <t>85 - 89</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -804,7 +804,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>90 - 94 лет</t>
+          <t>90 - 94</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -823,7 +823,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>95 - 99 лет</t>
+          <t>95 - 99</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -842,7 +842,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>100+ лет</t>
+          <t>100+</t>
         </is>
       </c>
       <c r="B22" t="n">
